--- a/data/trans_orig/ACT_OCIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ACT_OCIO-Edad-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el tiempo libre en Andalucia</t>
+          <t>Actividad principal en el tiempo libre en Andalucia (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5339,7 +5339,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el tiempo libre en C.Valenciana</t>
+          <t>Actividad principal en el tiempo libre en C.Valenciana (tasa de respuesta: 97,41%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ACT_OCIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ACT_OCIO-Edad-trans_orig.xlsx
@@ -739,12 +739,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68112</t>
+          <t>68776</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>119924</t>
+          <t>118647</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>50,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13742</t>
+          <t>12857</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>35803</t>
+          <t>35458</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -809,12 +809,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>87364</t>
+          <t>87539</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>146175</t>
+          <t>147617</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -824,12 +824,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>35,1%</t>
         </is>
       </c>
     </row>
@@ -852,12 +852,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29779</t>
+          <t>28267</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>70913</t>
+          <t>69877</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6749</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27825</t>
+          <t>26502</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -922,12 +922,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>42385</t>
+          <t>41975</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>89845</t>
+          <t>90935</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>21,62%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46538</t>
+          <t>45555</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>93175</t>
+          <t>98296</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -980,12 +980,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>54465</t>
+          <t>54168</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>91244</t>
+          <t>90920</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>49,32%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>114852</t>
+          <t>112668</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>177224</t>
+          <t>174718</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>41,54%</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11560</t>
+          <t>11101</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49080</t>
+          <t>50115</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,12 +1113,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>56378</t>
+          <t>55422</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93830</t>
+          <t>93371</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>50,9%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>72009</t>
+          <t>74701</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>129082</t>
+          <t>132251</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>31,44%</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43855</t>
+          <t>43691</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80048</t>
+          <t>77918</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12095</t>
+          <t>13379</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43709</t>
+          <t>45247</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>52665</t>
+          <t>54683</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>115075</t>
+          <t>112184</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>20,63%</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20709</t>
+          <t>21158</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48566</t>
+          <t>48391</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11321</t>
+          <t>10707</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>38636</t>
+          <t>38282</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>33221</t>
+          <t>35332</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>77468</t>
+          <t>78462</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,43%</t>
         </is>
       </c>
     </row>
@@ -1534,12 +1534,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40454</t>
+          <t>41884</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75491</t>
+          <t>75446</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>120229</t>
+          <t>117927</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>238289</t>
+          <t>243021</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>37,51%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>77,29%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,12 +1604,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>169233</t>
+          <t>167030</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>333578</t>
+          <t>332476</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>61,34%</t>
+          <t>61,14%</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>63492</t>
+          <t>60835</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>101703</t>
+          <t>99565</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>46114</t>
+          <t>48187</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>128111</t>
+          <t>130001</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1697,12 +1697,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>112032</t>
+          <t>119537</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>209212</t>
+          <t>214118</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>38,47%</t>
+          <t>39,37%</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>47200</t>
+          <t>48141</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>77336</t>
+          <t>76451</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26796</t>
+          <t>26586</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>45414</t>
+          <t>45401</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>78905</t>
+          <t>80068</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>113949</t>
+          <t>114481</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1962,12 +1962,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>18,12%</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34935</t>
+          <t>35247</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61685</t>
+          <t>62873</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2005,12 +2005,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10010</t>
+          <t>10248</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>24119</t>
+          <t>24384</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2060,12 +2060,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>49384</t>
+          <t>49343</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>80174</t>
+          <t>80240</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>12,7%</t>
         </is>
       </c>
     </row>
@@ -2103,12 +2103,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>94665</t>
+          <t>93383</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>130075</t>
+          <t>129661</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>127420</t>
+          <t>127041</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>155815</t>
+          <t>157412</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>49,04%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>229410</t>
+          <t>228735</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>275185</t>
+          <t>273760</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>43,33%</t>
         </is>
       </c>
     </row>
@@ -2216,12 +2216,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75425</t>
+          <t>75364</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>109960</t>
+          <t>110519</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2251,12 +2251,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>112998</t>
+          <t>112821</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>141830</t>
+          <t>142962</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2266,12 +2266,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>197160</t>
+          <t>197419</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>242949</t>
+          <t>242276</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2301,12 +2301,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>31,25%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>38,35%</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19520</t>
+          <t>20741</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>101743</t>
+          <t>100474</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2481,12 +2481,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30627</t>
+          <t>30966</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>50292</t>
+          <t>50486</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2496,12 +2496,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>45454</t>
+          <t>44961</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>135070</t>
+          <t>135187</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>13,11%</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15467</t>
+          <t>15953</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>83024</t>
+          <t>84872</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>15407</t>
+          <t>15976</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>30953</t>
+          <t>31085</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2609,12 +2609,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>31759</t>
+          <t>33678</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>98558</t>
+          <t>98717</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2644,12 +2644,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>9,58%</t>
         </is>
       </c>
     </row>
@@ -2672,12 +2672,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>246764</t>
+          <t>250499</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>548057</t>
+          <t>535712</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2687,12 +2687,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>40,01%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>85,56%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>180958</t>
+          <t>179231</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>212567</t>
+          <t>214123</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2722,12 +2722,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,7%</t>
+          <t>44,28%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>52,51%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2742,12 +2742,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>455587</t>
+          <t>455712</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>813832</t>
+          <t>813687</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2757,12 +2757,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>44,2%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>78,94%</t>
+          <t>78,93%</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>43790</t>
+          <t>46752</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>206911</t>
+          <t>204041</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2820,12 +2820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>129724</t>
+          <t>129673</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>162162</t>
+          <t>162417</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>134788</t>
+          <t>134411</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>359323</t>
+          <t>354755</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>34,41%</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>18217</t>
+          <t>18096</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>36724</t>
+          <t>36805</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3030,12 +3030,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3050,12 +3050,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>19757</t>
+          <t>19285</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>34780</t>
+          <t>33593</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3085,12 +3085,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>41574</t>
+          <t>42509</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>64886</t>
+          <t>66183</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>10,09%</t>
         </is>
       </c>
     </row>
@@ -3128,12 +3128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17285</t>
+          <t>17908</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>36959</t>
+          <t>37086</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3143,12 +3143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3163,12 +3163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>7234</t>
+          <t>7332</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>17224</t>
+          <t>17573</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3178,12 +3178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3198,12 +3198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>27065</t>
+          <t>28565</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>48061</t>
+          <t>48718</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>135990</t>
+          <t>136966</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>172717</t>
+          <t>170660</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>139637</t>
+          <t>139712</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>167376</t>
+          <t>166543</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3291,12 +3291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>43,98%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>52,69%</t>
+          <t>52,43%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>287051</t>
+          <t>284587</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>330170</t>
+          <t>330414</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>43,77%</t>
+          <t>43,39%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>50,34%</t>
+          <t>50,38%</t>
         </is>
       </c>
     </row>
@@ -3354,12 +3354,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>115753</t>
+          <t>114927</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>150291</t>
+          <t>149340</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3369,12 +3369,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>114456</t>
+          <t>113631</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>140485</t>
+          <t>139342</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3404,12 +3404,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>43,86%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3424,12 +3424,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>235608</t>
+          <t>236376</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>278937</t>
+          <t>280947</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3439,12 +3439,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>42,84%</t>
         </is>
       </c>
     </row>
@@ -3584,12 +3584,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11452</t>
+          <t>11622</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>24643</t>
+          <t>24978</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3619,12 +3619,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>36935</t>
+          <t>37216</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3634,12 +3634,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>13750</t>
+          <t>13620</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>54050</t>
+          <t>55773</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3669,12 +3669,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>7662</t>
+          <t>7169</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>18547</t>
+          <t>18413</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3712,12 +3712,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3732,12 +3732,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3559</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>25715</t>
+          <t>25293</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3747,12 +3747,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3767,12 +3767,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>10409</t>
+          <t>8910</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>39605</t>
+          <t>39078</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3782,12 +3782,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -3810,12 +3810,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>96950</t>
+          <t>95453</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>119857</t>
+          <t>119451</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3825,12 +3825,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>46,59%</t>
+          <t>45,87%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>57,6%</t>
+          <t>57,41%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>213215</t>
+          <t>213493</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>408831</t>
+          <t>416607</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>47,16%</t>
+          <t>47,23%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3880,12 +3880,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>324893</t>
+          <t>324221</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>555234</t>
+          <t>571337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>49,22%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>84,11%</t>
+          <t>86,55%</t>
         </is>
       </c>
     </row>
@@ -3923,12 +3923,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>59425</t>
+          <t>59880</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>81766</t>
+          <t>81965</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3938,12 +3938,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>39,39%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3958,12 +3958,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>32508</t>
+          <t>26618</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>182296</t>
+          <t>181482</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>77622</t>
+          <t>64466</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>248303</t>
+          <t>247972</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4008,12 +4008,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>37,56%</t>
         </is>
       </c>
     </row>
@@ -4153,12 +4153,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>12867</t>
+          <t>12800</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4168,12 +4168,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4188,12 +4188,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>5130</t>
+          <t>5213</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>13884</t>
+          <t>13714</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>11296</t>
+          <t>11241</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>24293</t>
+          <t>23020</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4238,12 +4238,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>5,98%</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1815</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8555</t>
+          <t>9182</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4281,12 +4281,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4301,12 +4301,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>593</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>5478</t>
+          <t>5707</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4336,12 +4336,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>3436</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>12155</t>
+          <t>11663</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4351,12 +4351,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,03%</t>
         </is>
       </c>
     </row>
@@ -4379,12 +4379,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>63227</t>
+          <t>63297</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>83104</t>
+          <t>82773</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -4394,12 +4394,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>41,7%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>54,54%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4414,12 +4414,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>62857</t>
+          <t>63311</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>83124</t>
+          <t>84718</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>132779</t>
+          <t>133623</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>162166</t>
+          <t>162681</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>42,26%</t>
         </is>
       </c>
     </row>
@@ -4492,12 +4492,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>57186</t>
+          <t>57458</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>76580</t>
+          <t>77626</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -4507,12 +4507,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>51,15%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4527,12 +4527,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>138300</t>
+          <t>137020</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>159970</t>
+          <t>158959</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>58,77%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>68,61%</t>
+          <t>68,18%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>199280</t>
+          <t>200270</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>230516</t>
+          <t>229364</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>51,77%</t>
+          <t>52,03%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>59,89%</t>
+          <t>59,59%</t>
         </is>
       </c>
     </row>
@@ -4722,12 +4722,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>220035</t>
+          <t>212396</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>383214</t>
+          <t>384392</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -4737,12 +4737,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -4757,12 +4757,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>129439</t>
+          <t>128157</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>213155</t>
+          <t>211444</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>391332</t>
+          <t>398903</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>572867</t>
+          <t>574730</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,28%</t>
         </is>
       </c>
     </row>
@@ -4835,12 +4835,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>145608</t>
+          <t>154306</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>268927</t>
+          <t>266201</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -4850,12 +4850,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4870,12 +4870,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>74967</t>
+          <t>73703</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>128815</t>
+          <t>127887</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -4885,12 +4885,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>245545</t>
+          <t>251233</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>379863</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,78%</t>
         </is>
       </c>
     </row>
@@ -4948,12 +4948,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>800913</t>
+          <t>810339</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>1335033</t>
+          <t>1341706</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -4963,12 +4963,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>63,87%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4983,12 +4983,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>984662</t>
+          <t>988592</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>1427333</t>
+          <t>1469528</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -4998,12 +4998,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>64,08%</t>
+          <t>65,97%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5018,12 +5018,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>1845435</t>
+          <t>1860038</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>2571731</t>
+          <t>2554168</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>42,98%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>59,42%</t>
+          <t>59,02%</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>396758</t>
+          <t>382220</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>686314</t>
+          <t>680050</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -5076,12 +5076,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5096,12 +5096,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>605001</t>
+          <t>567279</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>927591</t>
+          <t>919348</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -5111,12 +5111,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>41,27%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5131,12 +5131,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>1104074</t>
+          <t>1124938</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>1563364</t>
+          <t>1558022</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -5146,12 +5146,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>36,0%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ACT_OCIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ACT_OCIO-Edad-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92537</t>
+          <t>94476</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68776</t>
+          <t>72273</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>118647</t>
+          <t>119869</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>49,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22417</t>
+          <t>28113</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12857</t>
+          <t>17205</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>35458</t>
+          <t>42438</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>114954</t>
+          <t>122589</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>87539</t>
+          <t>95794</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>147617</t>
+          <t>152012</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>32,98%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47656</t>
+          <t>51509</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28267</t>
+          <t>31861</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69877</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15345</t>
+          <t>16228</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>7582</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26502</t>
+          <t>28224</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>63001</t>
+          <t>67738</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>41975</t>
+          <t>46037</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>90935</t>
+          <t>93237</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>20,23%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>69785</t>
+          <t>73645</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45555</t>
+          <t>50511</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98296</t>
+          <t>99021</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>41,61%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>72073</t>
+          <t>87469</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>54168</t>
+          <t>67319</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>90920</t>
+          <t>109162</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>141858</t>
+          <t>161114</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>112668</t>
+          <t>130978</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>174718</t>
+          <t>197146</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>42,77%</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26259</t>
+          <t>21635</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11101</t>
+          <t>9216</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50115</t>
+          <t>41861</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1108,32 +1108,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74517</t>
+          <t>87845</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55422</t>
+          <t>66867</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93371</t>
+          <t>108225</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>39,99%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1143,32 +1143,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>100776</t>
+          <t>109480</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>74701</t>
+          <t>83212</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>132251</t>
+          <t>139566</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>30,28%</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59539</t>
+          <t>63415</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43691</t>
+          <t>46479</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77918</t>
+          <t>83993</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28142</t>
+          <t>29651</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13379</t>
+          <t>19424</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>45247</t>
+          <t>43371</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>87681</t>
+          <t>93066</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>54683</t>
+          <t>71231</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>112184</t>
+          <t>116528</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>21,36%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32988</t>
+          <t>37654</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21158</t>
+          <t>24632</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48391</t>
+          <t>55631</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23679</t>
+          <t>25100</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10707</t>
+          <t>15567</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>38282</t>
+          <t>38788</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>56667</t>
+          <t>62754</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>35332</t>
+          <t>45020</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>78462</t>
+          <t>84478</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>15,49%</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56299</t>
+          <t>71851</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41884</t>
+          <t>54236</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75446</t>
+          <t>94364</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>168143</t>
+          <t>117215</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>117927</t>
+          <t>100448</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>243021</t>
+          <t>134810</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>37,51%</t>
+          <t>35,44%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>77,29%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>224442</t>
+          <t>189065</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>167030</t>
+          <t>162879</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>332476</t>
+          <t>216101</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>39,62%</t>
         </is>
       </c>
     </row>
@@ -1642,32 +1642,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>80542</t>
+          <t>89054</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>60835</t>
+          <t>68707</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>99565</t>
+          <t>108577</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1677,32 +1677,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>94464</t>
+          <t>111487</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>48187</t>
+          <t>94845</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>130001</t>
+          <t>128768</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1712,32 +1712,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>175006</t>
+          <t>200541</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>119537</t>
+          <t>174395</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214118</t>
+          <t>230855</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>42,33%</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1825,17 +1825,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>60624</t>
+          <t>66201</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>48141</t>
+          <t>53208</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>76451</t>
+          <t>83802</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>35821</t>
+          <t>38231</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26586</t>
+          <t>28136</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>45401</t>
+          <t>48266</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>96444</t>
+          <t>104432</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>80068</t>
+          <t>86149</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>114481</t>
+          <t>123586</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>16,71%</t>
         </is>
       </c>
     </row>
@@ -1985,32 +1985,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>47822</t>
+          <t>54287</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35247</t>
+          <t>40260</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>62873</t>
+          <t>70386</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2020,32 +2020,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16015</t>
+          <t>18911</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10248</t>
+          <t>12440</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>24384</t>
+          <t>28681</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2055,32 +2055,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>63837</t>
+          <t>73199</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>49343</t>
+          <t>56006</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>80240</t>
+          <t>91211</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,34%</t>
         </is>
       </c>
     </row>
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>110119</t>
+          <t>136142</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>93383</t>
+          <t>116683</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>129661</t>
+          <t>156738</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,32 +2133,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>141057</t>
+          <t>163201</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>127041</t>
+          <t>148250</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>157412</t>
+          <t>181674</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>43,98%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>39,58%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2168,32 +2168,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>251175</t>
+          <t>299343</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>228735</t>
+          <t>273389</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>273760</t>
+          <t>325917</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>44,08%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>92204</t>
+          <t>111687</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75364</t>
+          <t>92655</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>110519</t>
+          <t>132375</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>30,32%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>128118</t>
+          <t>150770</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>112821</t>
+          <t>133422</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>142962</t>
+          <t>166824</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>220321</t>
+          <t>262458</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>197419</t>
+          <t>238342</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>242276</t>
+          <t>289245</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>35,49%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>39,12%</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>321010</t>
+          <t>371113</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>321010</t>
+          <t>371113</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>321010</t>
+          <t>371113</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>631778</t>
+          <t>739432</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>631778</t>
+          <t>739432</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>631778</t>
+          <t>739432</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2441,32 +2441,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>57789</t>
+          <t>60465</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20741</t>
+          <t>47280</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>100474</t>
+          <t>75416</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,32 +2476,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39249</t>
+          <t>42411</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30966</t>
+          <t>33574</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>50486</t>
+          <t>53749</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,32 +2511,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>97038</t>
+          <t>102876</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>44961</t>
+          <t>87830</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>135187</t>
+          <t>122958</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>14,23%</t>
         </is>
       </c>
     </row>
@@ -2554,32 +2554,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>47013</t>
+          <t>49220</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15953</t>
+          <t>37195</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>84872</t>
+          <t>64306</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22696</t>
+          <t>25433</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>15976</t>
+          <t>18091</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>31085</t>
+          <t>34691</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,32 +2624,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>69709</t>
+          <t>74653</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>33678</t>
+          <t>59153</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>98717</t>
+          <t>92659</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>10,72%</t>
         </is>
       </c>
     </row>
@@ -2667,32 +2667,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>401868</t>
+          <t>179374</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>250499</t>
+          <t>159437</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>535712</t>
+          <t>202135</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>64,18%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>40,01%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>85,56%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2702,32 +2702,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>197934</t>
+          <t>222388</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>179231</t>
+          <t>202431</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>214123</t>
+          <t>238359</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>48,9%</t>
+          <t>50,39%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,28%</t>
+          <t>45,87%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2737,32 +2737,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>599802</t>
+          <t>401763</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>455712</t>
+          <t>374664</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>813687</t>
+          <t>430579</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>58,18%</t>
+          <t>46,49%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>43,36%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>78,93%</t>
+          <t>49,83%</t>
         </is>
       </c>
     </row>
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>119444</t>
+          <t>133753</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>46752</t>
+          <t>113511</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>204041</t>
+          <t>154031</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2815,32 +2815,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>144923</t>
+          <t>151061</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>129673</t>
+          <t>136230</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>162417</t>
+          <t>169079</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>264367</t>
+          <t>284814</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>134411</t>
+          <t>256264</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>354755</t>
+          <t>309855</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>35,86%</t>
         </is>
       </c>
     </row>
@@ -2893,17 +2893,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>626115</t>
+          <t>422812</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>626115</t>
+          <t>422812</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>626115</t>
+          <t>422812</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2928,17 +2928,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2963,17 +2963,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1030916</t>
+          <t>864105</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1030916</t>
+          <t>864105</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1030916</t>
+          <t>864105</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3010,32 +3010,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>26370</t>
+          <t>28855</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>18096</t>
+          <t>19896</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>36805</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,17 +3045,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>25900</t>
+          <t>29266</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>19285</t>
+          <t>22076</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>33593</t>
+          <t>37567</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,32 +3080,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>52270</t>
+          <t>58121</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>42509</t>
+          <t>47573</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>66183</t>
+          <t>73466</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,12%</t>
         </is>
       </c>
     </row>
@@ -3123,32 +3123,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>25676</t>
+          <t>30069</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17908</t>
+          <t>21079</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37086</t>
+          <t>43325</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,32 +3158,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11617</t>
+          <t>13109</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>7332</t>
+          <t>8424</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>17573</t>
+          <t>19827</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,32 +3193,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>37293</t>
+          <t>43179</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>28565</t>
+          <t>33310</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>48718</t>
+          <t>56202</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,74%</t>
         </is>
       </c>
     </row>
@@ -3236,32 +3236,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>153447</t>
+          <t>165200</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>136966</t>
+          <t>147910</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>170660</t>
+          <t>183151</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>49,89%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,32 +3271,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>153998</t>
+          <t>175157</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>139712</t>
+          <t>159700</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>166543</t>
+          <t>189766</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>52,43%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,17 +3306,17 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>307445</t>
+          <t>340357</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>284587</t>
+          <t>316456</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>330414</t>
+          <t>365897</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>50,39%</t>
         </is>
       </c>
     </row>
@@ -3349,32 +3349,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>132684</t>
+          <t>143012</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>114927</t>
+          <t>123542</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>149340</t>
+          <t>159086</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3384,32 +3384,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>126153</t>
+          <t>141394</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>113631</t>
+          <t>127334</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>139342</t>
+          <t>155989</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>39,39%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3419,32 +3419,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>258837</t>
+          <t>284406</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>236376</t>
+          <t>259302</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>280947</t>
+          <t>305941</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>42,14%</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>338177</t>
+          <t>367137</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>338177</t>
+          <t>367137</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>338177</t>
+          <t>367137</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3497,17 +3497,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>317668</t>
+          <t>358926</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>317668</t>
+          <t>358926</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>317668</t>
+          <t>358926</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3532,17 +3532,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>655845</t>
+          <t>726063</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>655845</t>
+          <t>726063</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>655845</t>
+          <t>726063</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3579,32 +3579,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>17075</t>
+          <t>18033</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11622</t>
+          <t>12241</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>24978</t>
+          <t>26546</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3614,32 +3614,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17973</t>
+          <t>20163</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>14439</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>37216</t>
+          <t>27228</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,32 +3649,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>35048</t>
+          <t>38196</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>13620</t>
+          <t>29950</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>55773</t>
+          <t>48928</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>9,77%</t>
         </is>
       </c>
     </row>
@@ -3692,32 +3692,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>12092</t>
+          <t>14050</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>7169</t>
+          <t>8471</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>18413</t>
+          <t>21128</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,32 +3727,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>12505</t>
+          <t>13962</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>9536</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>25293</t>
+          <t>20603</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,32 +3762,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>24597</t>
+          <t>28012</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>8910</t>
+          <t>20196</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>39078</t>
+          <t>37238</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>7,44%</t>
         </is>
       </c>
     </row>
@@ -3805,32 +3805,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>108406</t>
+          <t>120820</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>95453</t>
+          <t>105407</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>119451</t>
+          <t>132050</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,32 +3840,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>325427</t>
+          <t>129083</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>213493</t>
+          <t>116284</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>416607</t>
+          <t>140622</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>71,99%</t>
+          <t>47,91%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,32 +3875,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>433833</t>
+          <t>249903</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>324221</t>
+          <t>232303</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>571337</t>
+          <t>267539</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>65,72%</t>
+          <t>49,91%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>86,55%</t>
+          <t>53,43%</t>
         </is>
       </c>
     </row>
@@ -3918,17 +3918,17 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>70511</t>
+          <t>78370</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>59880</t>
+          <t>66844</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>81965</t>
+          <t>91158</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3938,12 +3938,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,32 +3953,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>96158</t>
+          <t>106225</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>26618</t>
+          <t>94830</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>181482</t>
+          <t>118885</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>39,43%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3988,32 +3988,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>166669</t>
+          <t>184595</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>64466</t>
+          <t>165618</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>247972</t>
+          <t>200192</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>33,08%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>39,98%</t>
         </is>
       </c>
     </row>
@@ -4031,17 +4031,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4066,17 +4066,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>452063</t>
+          <t>269433</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>452063</t>
+          <t>269433</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>452063</t>
+          <t>269433</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4101,17 +4101,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>660147</t>
+          <t>500706</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>660147</t>
+          <t>500706</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>660147</t>
+          <t>500706</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4148,32 +4148,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>7536</t>
+          <t>8975</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>5168</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>12800</t>
+          <t>15369</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4183,32 +4183,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>9022</t>
+          <t>9977</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>5213</t>
+          <t>5842</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>13714</t>
+          <t>15396</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4218,32 +4218,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>16558</t>
+          <t>18952</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>11241</t>
+          <t>12685</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>23020</t>
+          <t>25964</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>6,16%</t>
         </is>
       </c>
     </row>
@@ -4261,32 +4261,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>4285</t>
+          <t>5257</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>2262</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>9182</t>
+          <t>10616</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4296,32 +4296,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>2537</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>659</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>6105</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,32 +4331,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>6614</t>
+          <t>7794</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>11663</t>
+          <t>13782</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -4374,32 +4374,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>73139</t>
+          <t>78100</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>63297</t>
+          <t>67237</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>82773</t>
+          <t>88377</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>47,17%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>40,61%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>54,54%</t>
+          <t>53,37%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,32 +4409,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>73555</t>
+          <t>80602</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>63311</t>
+          <t>69105</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>84718</t>
+          <t>92824</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>36,29%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,32 +4444,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>146695</t>
+          <t>158702</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>133623</t>
+          <t>144497</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>162681</t>
+          <t>176723</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>41,94%</t>
         </is>
       </c>
     </row>
@@ -4487,32 +4487,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>66815</t>
+          <t>73248</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>57458</t>
+          <t>63302</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>77626</t>
+          <t>84939</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>38,23%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>51,3%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,32 +4522,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>148242</t>
+          <t>162682</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>137020</t>
+          <t>149769</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>158959</t>
+          <t>174319</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>63,58%</t>
+          <t>63,6%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>58,77%</t>
+          <t>58,55%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>68,18%</t>
+          <t>68,15%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,32 +4557,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>215057</t>
+          <t>235929</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>200270</t>
+          <t>219407</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>229364</t>
+          <t>251716</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>52,07%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>59,59%</t>
+          <t>59,74%</t>
         </is>
       </c>
     </row>
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4635,17 +4635,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>233148</t>
+          <t>255798</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>233148</t>
+          <t>255798</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>233148</t>
+          <t>255798</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4670,17 +4670,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>384923</t>
+          <t>421378</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>384923</t>
+          <t>421378</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>384923</t>
+          <t>421378</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4717,32 +4717,32 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>321469</t>
+          <t>340420</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>212396</t>
+          <t>299467</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>384392</t>
+          <t>384781</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -4752,32 +4752,32 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>178524</t>
+          <t>197811</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>128157</t>
+          <t>175444</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>211444</t>
+          <t>225923</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -4787,32 +4787,32 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>499993</t>
+          <t>538232</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>398903</t>
+          <t>491341</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>574730</t>
+          <t>587348</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,79%</t>
         </is>
       </c>
     </row>
@@ -4830,32 +4830,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>217531</t>
+          <t>242047</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>154306</t>
+          <t>206842</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>266201</t>
+          <t>281578</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4865,32 +4865,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>104186</t>
+          <t>115282</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>73703</t>
+          <t>93042</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>127887</t>
+          <t>136250</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4900,32 +4900,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>321717</t>
+          <t>357329</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>251233</t>
+          <t>316518</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>379863</t>
+          <t>400735</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
           <t>7,43%</t>
         </is>
       </c>
-      <c r="V40" s="2" t="inlineStr">
-        <is>
-          <t>5,8%</t>
-        </is>
-      </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>9,41%</t>
         </is>
       </c>
     </row>
@@ -4943,32 +4943,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>973064</t>
+          <t>825133</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>810339</t>
+          <t>775813</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>1341706</t>
+          <t>877837</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>63,87%</t>
+          <t>42,65%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4978,32 +4978,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>1132188</t>
+          <t>975114</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>988592</t>
+          <t>933363</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>1469528</t>
+          <t>1017448</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>44,33%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>65,97%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5013,32 +5013,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>2105251</t>
+          <t>1800247</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>1860038</t>
+          <t>1737651</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>2554168</t>
+          <t>1865379</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>42,98%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>59,02%</t>
+          <t>43,81%</t>
         </is>
       </c>
     </row>
@@ -5056,32 +5056,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>588459</t>
+          <t>650759</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>382220</t>
+          <t>602209</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>680050</t>
+          <t>699200</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5091,32 +5091,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>812575</t>
+          <t>911463</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>567279</t>
+          <t>866635</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>919348</t>
+          <t>952554</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>43,3%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5126,32 +5126,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>1401033</t>
+          <t>1562223</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>1124938</t>
+          <t>1503595</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>1558022</t>
+          <t>1626931</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>35,31%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>38,21%</t>
         </is>
       </c>
     </row>
@@ -5169,17 +5169,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>2100523</t>
+          <t>2058360</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>2100523</t>
+          <t>2058360</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>2100523</t>
+          <t>2058360</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5204,17 +5204,17 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>2227472</t>
+          <t>2199670</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>2227472</t>
+          <t>2199670</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>2227472</t>
+          <t>2199670</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5239,17 +5239,17 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>4327994</t>
+          <t>4258031</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>4327994</t>
+          <t>4258031</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>4327994</t>
+          <t>4258031</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
